--- a/results/mb_conv3_12branches_nowei_CA_network/mean_metrics.xlsx
+++ b/results/mb_conv3_12branches_nowei_CA_network/mean_metrics.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6026200866783623</v>
+        <v>0.7518376611942944</v>
       </c>
     </row>
     <row r="3">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5798319321640421</v>
+        <v>0.7446116706216693</v>
       </c>
     </row>
     <row r="4">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8269927534359164</v>
+        <v>0.8909549322393191</v>
       </c>
     </row>
     <row r="5">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5910059235362268</v>
+        <v>0.7482067196427615</v>
       </c>
     </row>
     <row r="6">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5312215685844421</v>
+        <v>0.7168857455253601</v>
       </c>
     </row>
     <row r="7">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.3766456842422485</v>
+        <v>0.6202630996704102</v>
       </c>
     </row>
   </sheetData>

--- a/results/mb_conv3_12branches_nowei_CA_network/mean_metrics.xlsx
+++ b/results/mb_conv3_12branches_nowei_CA_network/mean_metrics.xlsx
@@ -445,7 +445,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7518376611942944</v>
+        <v>0.6026200866783623</v>
       </c>
     </row>
     <row r="3">
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7446116706216693</v>
+        <v>0.5798319321640421</v>
       </c>
     </row>
     <row r="4">
@@ -465,7 +465,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8909549322393191</v>
+        <v>0.8269927534359164</v>
       </c>
     </row>
     <row r="5">
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7482067196427615</v>
+        <v>0.5910059235362268</v>
       </c>
     </row>
     <row r="6">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7168857455253601</v>
+        <v>0.5312215685844421</v>
       </c>
     </row>
     <row r="7">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6202630996704102</v>
+        <v>0.3766456842422485</v>
       </c>
     </row>
   </sheetData>
